--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_7_2.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_7_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2281125.477763403</v>
+        <v>-2284057.986732719</v>
       </c>
     </row>
     <row r="7">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>22.93062639098401</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>126.9105741582251</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,10 +674,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>286.0428278281909</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.2373148110768</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>206.1608002224376</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,16 +902,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>324.3701265163837</v>
       </c>
       <c r="W5" t="n">
-        <v>341.2578399936063</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>186.0202253155453</v>
       </c>
       <c r="T7" t="n">
-        <v>109.7756561963045</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1142,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.0502568735976</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>209.8297669748567</v>
       </c>
     </row>
     <row r="9">
@@ -1294,22 +1294,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>106.0725670814544</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>45.199959188537</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>87.73425454431396</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1385,7 @@
         <v>409.8432760127576</v>
       </c>
       <c r="H11" t="n">
-        <v>282.026047627202</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>250.9088959876463</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>326.2152140927927</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>42.14043765204811</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I13" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,10 +1579,10 @@
         <v>181.338488358459</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4819944627618</v>
+        <v>212.8986470727909</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1854515484204</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>145.6229551553992</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>71.39698738222801</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2002,10 +2002,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>123.9815576456784</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2014,7 +2014,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>96.02642072444083</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,13 +2242,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>182.4326803923963</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>194.9706438327688</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2476,7 +2476,7 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C25" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D25" t="n">
         <v>124.3308255261727</v>
@@ -2494,7 +2494,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I25" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S25" t="n">
         <v>156.7416385096049</v>
@@ -2539,7 +2539,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X25" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y25" t="n">
         <v>194.3000058600551</v>
@@ -2713,25 +2713,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C28" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D28" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E28" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F28" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G28" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H28" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808197</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
@@ -2776,7 +2776,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X28" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y28" t="n">
         <v>194.3000058600551</v>
@@ -2959,16 +2959,16 @@
         <v>122.1493151545294</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308922</v>
       </c>
       <c r="G31" t="n">
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3898,7 +3898,7 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
         <v>124.3308255261727</v>
@@ -3910,7 +3910,7 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1291.843196189811</v>
+        <v>1860.708406770827</v>
       </c>
       <c r="C2" t="n">
-        <v>1291.843196189811</v>
+        <v>1491.745889830415</v>
       </c>
       <c r="D2" t="n">
-        <v>1268.68094731003</v>
+        <v>1491.745889830415</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>2408.216941696817</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W2" t="n">
-        <v>2055.448286426703</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X2" t="n">
-        <v>1681.982528165623</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="Y2" t="n">
-        <v>1291.843196189811</v>
+        <v>2247.308246834948</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4419,19 +4419,19 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>170.3443099123612</v>
+        <v>519.8857516585174</v>
       </c>
       <c r="C4" t="n">
-        <v>170.3443099123612</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D4" t="n">
-        <v>170.3443099123612</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E4" t="n">
-        <v>170.3443099123612</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>170.3443099123612</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>170.3443099123612</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>170.3443099123612</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>579.9823256406182</v>
+        <v>519.8857516585174</v>
       </c>
       <c r="W4" t="n">
-        <v>579.9823256406182</v>
+        <v>519.8857516585174</v>
       </c>
       <c r="X4" t="n">
-        <v>351.9927747426009</v>
+        <v>519.8857516585174</v>
       </c>
       <c r="Y4" t="n">
-        <v>351.9927747426009</v>
+        <v>519.8857516585174</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1317.778685247039</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="C5" t="n">
-        <v>1317.778685247039</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="D5" t="n">
-        <v>959.5129866402885</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4565,19 +4565,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>2115.740713215522</v>
       </c>
       <c r="W5" t="n">
-        <v>1317.778685247039</v>
+        <v>1762.972057945408</v>
       </c>
       <c r="X5" t="n">
-        <v>1317.778685247039</v>
+        <v>1762.972057945408</v>
       </c>
       <c r="Y5" t="n">
-        <v>1317.778685247039</v>
+        <v>1762.972057945408</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4647,10 +4647,10 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4665,28 +4665,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>211.6913543878343</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="C7" t="n">
-        <v>211.6913543878343</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="D7" t="n">
-        <v>211.6913543878343</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="E7" t="n">
-        <v>211.6913543878343</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="F7" t="n">
         <v>211.6913543878343</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942401</v>
+        <v>540.2297667159844</v>
       </c>
       <c r="T7" t="n">
-        <v>439.6809052858516</v>
+        <v>540.2297667159844</v>
       </c>
       <c r="U7" t="n">
-        <v>439.6809052858516</v>
+        <v>540.2297667159844</v>
       </c>
       <c r="V7" t="n">
-        <v>439.6809052858516</v>
+        <v>540.2297667159844</v>
       </c>
       <c r="W7" t="n">
-        <v>439.6809052858516</v>
+        <v>540.2297667159844</v>
       </c>
       <c r="X7" t="n">
-        <v>211.6913543878343</v>
+        <v>540.2297667159844</v>
       </c>
       <c r="Y7" t="n">
-        <v>211.6913543878343</v>
+        <v>540.2297667159844</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1933.544000781331</v>
+        <v>955.5060781830496</v>
       </c>
       <c r="C8" t="n">
-        <v>1564.581483840919</v>
+        <v>586.5435612426379</v>
       </c>
       <c r="D8" t="n">
-        <v>1206.315785234169</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="E8" t="n">
-        <v>1206.315785234169</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F8" t="n">
-        <v>795.3298804445612</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4832,22 +4832,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X8" t="n">
-        <v>2323.683332757143</v>
+        <v>1167.455337753612</v>
       </c>
       <c r="Y8" t="n">
-        <v>1933.544000781331</v>
+        <v>955.5060781830496</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4881,16 +4881,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4902,22 +4902,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>500.820796875036</v>
+        <v>418.7159459272334</v>
       </c>
       <c r="C10" t="n">
-        <v>500.820796875036</v>
+        <v>418.7159459272334</v>
       </c>
       <c r="D10" t="n">
-        <v>500.820796875036</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="E10" t="n">
-        <v>500.820796875036</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="F10" t="n">
-        <v>393.6767897220517</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G10" t="n">
-        <v>393.6767897220517</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
         <v>99.59950625323012</v>
@@ -4990,22 +4990,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>500.820796875036</v>
+        <v>639.5085250707635</v>
       </c>
       <c r="X10" t="n">
-        <v>500.820796875036</v>
+        <v>639.5085250707635</v>
       </c>
       <c r="Y10" t="n">
-        <v>500.820796875036</v>
+        <v>418.7159459272334</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2316.676938649612</v>
+        <v>2318.229508727735</v>
       </c>
       <c r="C11" t="n">
-        <v>1947.7144217092</v>
+        <v>1949.266991787324</v>
       </c>
       <c r="D11" t="n">
-        <v>1589.44872310245</v>
+        <v>1591.001293180573</v>
       </c>
       <c r="E11" t="n">
-        <v>1203.660470504205</v>
+        <v>1205.213040582329</v>
       </c>
       <c r="F11" t="n">
-        <v>792.6745657145977</v>
+        <v>794.2271357927214</v>
       </c>
       <c r="G11" t="n">
-        <v>378.6914586310042</v>
+        <v>380.2440287091278</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
@@ -5054,10 +5054,10 @@
         <v>2920.752242696685</v>
       </c>
       <c r="O11" t="n">
-        <v>3652.861230428501</v>
+        <v>3603.614279155823</v>
       </c>
       <c r="P11" t="n">
-        <v>4201.167179115849</v>
+        <v>4151.920227843171</v>
       </c>
       <c r="Q11" t="n">
         <v>4564.749365221855</v>
@@ -5075,16 +5075,16 @@
         <v>4150.71341156431</v>
       </c>
       <c r="V11" t="n">
-        <v>3819.650524220739</v>
+        <v>3821.203094298863</v>
       </c>
       <c r="W11" t="n">
-        <v>3466.881868950625</v>
+        <v>3468.434439028749</v>
       </c>
       <c r="X11" t="n">
-        <v>3093.416110689545</v>
+        <v>3094.968680767669</v>
       </c>
       <c r="Y11" t="n">
-        <v>2703.276778713734</v>
+        <v>2704.829348791857</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>94.85569562249445</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>242.5036773743404</v>
+        <v>241.4646447998178</v>
       </c>
       <c r="K12" t="n">
-        <v>573.0124199376992</v>
+        <v>571.9733873631765</v>
       </c>
       <c r="L12" t="n">
-        <v>1063.74475278145</v>
+        <v>1062.705720206928</v>
       </c>
       <c r="M12" t="n">
-        <v>1655.763107033578</v>
+        <v>1654.724074459055</v>
       </c>
       <c r="N12" t="n">
-        <v>1655.763107033578</v>
+        <v>1903.635877180809</v>
       </c>
       <c r="O12" t="n">
-        <v>2202.639582033772</v>
+        <v>1903.635877180809</v>
       </c>
       <c r="P12" t="n">
-        <v>2287.893191372974</v>
+        <v>2323.219395606885</v>
       </c>
       <c r="Q12" t="n">
-        <v>2518.454465358221</v>
+        <v>2553.780669592131</v>
       </c>
       <c r="R12" t="n">
         <v>2553.780669592131</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>676.7124946742043</v>
+        <v>1016.759438255509</v>
       </c>
       <c r="C13" t="n">
-        <v>507.7763117462974</v>
+        <v>847.8232553276018</v>
       </c>
       <c r="D13" t="n">
-        <v>465.210213107865</v>
+        <v>697.7066159152661</v>
       </c>
       <c r="E13" t="n">
-        <v>465.210213107865</v>
+        <v>549.793522332873</v>
       </c>
       <c r="F13" t="n">
-        <v>318.3202656099546</v>
+        <v>402.9035748349626</v>
       </c>
       <c r="G13" t="n">
-        <v>318.3202656099546</v>
+        <v>235.6893800095415</v>
       </c>
       <c r="H13" t="n">
-        <v>176.447548648385</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5227,22 +5227,22 @@
         <v>2178.35127892949</v>
       </c>
       <c r="T13" t="n">
-        <v>1958.672496643873</v>
+        <v>1963.302140472126</v>
       </c>
       <c r="U13" t="n">
-        <v>1669.596282958599</v>
+        <v>1963.302140472126</v>
       </c>
       <c r="V13" t="n">
-        <v>1414.911794752712</v>
+        <v>1708.617652266239</v>
       </c>
       <c r="W13" t="n">
-        <v>1125.494624715752</v>
+        <v>1419.200482229278</v>
       </c>
       <c r="X13" t="n">
-        <v>897.5050738177345</v>
+        <v>1419.200482229278</v>
       </c>
       <c r="Y13" t="n">
-        <v>676.7124946742043</v>
+        <v>1198.407903085748</v>
       </c>
     </row>
     <row r="14">
@@ -5282,16 +5282,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5358,22 +5358,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>251.562654109227</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>746.8882603249857</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1344.266747951538</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1022.872235754091</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C16" t="n">
-        <v>853.936052826184</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="D16" t="n">
-        <v>703.8194134138482</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5461,25 +5461,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487567</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625878</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W16" t="n">
-        <v>1653.302830625878</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X16" t="n">
-        <v>1425.313279727861</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y16" t="n">
-        <v>1204.520700584331</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="17">
@@ -5513,10 +5513,10 @@
         <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,10 +5525,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5549,7 +5549,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852889</v>
@@ -5598,22 +5598,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1174.766565373399</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="C19" t="n">
-        <v>388.6197041282753</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282753</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
         <v>93.81666304797187</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1880.464695940366</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1625.780207734479</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1336.363037697518</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>1108.373486799501</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>887.5809076559709</v>
       </c>
     </row>
     <row r="20">
@@ -5738,37 +5738,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>228.9331431646413</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>562.8579153358619</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1058.183521551621</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1655.562009178173</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2283.159972732779</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>948.5505208511905</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C22" t="n">
-        <v>779.6143379232836</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>2012.787110747773</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993915</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W22" t="n">
-        <v>1327.139029956954</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X22" t="n">
-        <v>1130.19898568143</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y22" t="n">
-        <v>1130.19898568143</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="23">
@@ -5966,40 +5966,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6011,25 +6011,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6072,22 +6072,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>913.2907898186995</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>913.2907898186995</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.888753373306</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612593</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C25" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D25" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E25" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F25" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G25" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H25" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K25" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L25" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M25" t="n">
         <v>1344.317444979286</v>
@@ -6169,13 +6169,13 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R25" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S25" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T25" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U25" t="n">
         <v>1978.840049838286</v>
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6300,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>716.6687843969308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656811</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150016</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942648</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H28" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954148</v>
       </c>
       <c r="K28" t="n">
-        <v>483.8255460380727</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L28" t="n">
         <v>898.265941231132</v>
@@ -6400,10 +6400,10 @@
         <v>2179.340199382518</v>
       </c>
       <c r="P28" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973195</v>
       </c>
       <c r="Q28" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R28" t="n">
         <v>2596.781734931273</v>
@@ -6412,22 +6412,22 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T28" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U28" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W28" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X28" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y28" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="29">
@@ -6449,16 +6449,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
         <v>378.192580311172</v>
@@ -6537,28 +6537,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O30" t="n">
-        <v>2299.457522348532</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319324</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150023</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F31" t="n">
         <v>411.2214559580113</v>
@@ -6613,19 +6613,19 @@
         <v>268.5553036345476</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6643,19 +6643,19 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
         <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W31" t="n">
         <v>1483.798285518751</v>
@@ -6698,10 +6698,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1337.934786622704</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N33" t="n">
-        <v>1965.532750177311</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319322</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942652</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345471</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384015</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6859,10 +6859,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L34" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6877,7 +6877,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R34" t="n">
         <v>2596.781734931273</v>
@@ -6886,7 +6886,7 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
         <v>1978.840049838285</v>
@@ -6895,13 +6895,13 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X34" t="n">
         <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="35">
@@ -6935,19 +6935,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>2231.588527385791</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>2231.588527385791</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>2726.91413360155</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>3324.292621228102</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N36" t="n">
-        <v>3951.890584782709</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O36" t="n">
-        <v>4503.800315021996</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>4503.800315021996</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319324</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380727</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
         <v>898.2659412311323</v>
@@ -7123,22 +7123,22 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="38">
@@ -7160,22 +7160,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1731.250242493492</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O39" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7318,25 +7318,25 @@
         <v>533.5814564942652</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954152</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7357,13 +7357,13 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
@@ -7372,7 +7372,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
         <v>378.192580311172</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7488,25 +7488,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150021</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F43" t="n">
         <v>411.2214559580111</v>
@@ -7561,10 +7561,10 @@
         <v>268.5553036345473</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384016</v>
+        <v>151.3734194384014</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
@@ -7579,7 +7579,7 @@
         <v>1344.317444979286</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656413</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
         <v>2179.340199382518</v>
@@ -7588,7 +7588,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
         <v>2596.781734931273</v>
@@ -7637,10 +7637,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
@@ -7725,16 +7725,16 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
         <v>1859.536823237711</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
         <v>411.2214559580113</v>
@@ -7807,10 +7807,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7819,19 +7819,19 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R46" t="n">
         <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747122</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,10 +8295,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142015</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K8" t="n">
         <v>324.1454125711647</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,10 +8538,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093292</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8702,13 +8702,13 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>49.74439522492685</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>49.74439522492651</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10838,7 +10838,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -22544,16 +22544,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>255.0197959140366</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22562,10 +22562,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,22 +22598,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>41.70943064194396</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22705,28 +22705,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>19.7283069812615</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22753,25 +22753,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>45.97684310139036</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>59.8214689554656</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.53704437734234</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.537044377342227</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>106.4750353661642</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,10 +23467,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>4.583347389970953</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>21.62386594322859</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>75.03697526434117</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,10 +23701,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,10 +23890,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>43.26526345294945</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>190.1580536648033</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24130,13 +24130,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24175,25 +24175,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>34.97276993489194</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>30.73901155626831</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>31795.45121791693</v>
+        <v>31795.45121791694</v>
       </c>
       <c r="C2" t="n">
-        <v>41052.08849321416</v>
+        <v>41052.08849321417</v>
       </c>
       <c r="D2" t="n">
-        <v>41052.08849321416</v>
+        <v>41052.08849321415</v>
       </c>
       <c r="E2" t="n">
         <v>40328.03141930615</v>
       </c>
       <c r="F2" t="n">
-        <v>40357.32998450031</v>
+        <v>40357.3299845003</v>
       </c>
       <c r="G2" t="n">
-        <v>40357.32998450033</v>
+        <v>40357.32998450029</v>
       </c>
       <c r="H2" t="n">
-        <v>40357.3299845003</v>
+        <v>40357.32998450032</v>
       </c>
       <c r="I2" t="n">
         <v>41052.08849321419</v>
       </c>
       <c r="J2" t="n">
+        <v>41052.08849321421</v>
+      </c>
+      <c r="K2" t="n">
+        <v>41052.0884932142</v>
+      </c>
+      <c r="L2" t="n">
         <v>41052.08849321419</v>
       </c>
-      <c r="K2" t="n">
-        <v>41052.08849321419</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
+        <v>41052.08849321417</v>
+      </c>
+      <c r="N2" t="n">
+        <v>41052.08849321421</v>
+      </c>
+      <c r="O2" t="n">
         <v>41052.0884932142</v>
-      </c>
-      <c r="M2" t="n">
-        <v>41052.08849321419</v>
-      </c>
-      <c r="N2" t="n">
-        <v>41052.0884932142</v>
-      </c>
-      <c r="O2" t="n">
-        <v>41052.08849321419</v>
       </c>
       <c r="P2" t="n">
         <v>41052.08849321419</v>
@@ -26390,7 +26390,7 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>3.126388037344441e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26399,13 +26399,13 @@
         <v>124208.5107080585</v>
       </c>
       <c r="N3" t="n">
-        <v>19427.71799363173</v>
+        <v>19427.71799363175</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>6.252776074688882e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26424,37 +26424,37 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>5759.938886718171</v>
+        <v>5759.938886718168</v>
       </c>
       <c r="F4" t="n">
         <v>5067.592601670437</v>
       </c>
       <c r="G4" t="n">
-        <v>5067.592601670438</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="H4" t="n">
-        <v>5067.592601670423</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="I4" t="n">
         <v>13058.4518647639</v>
       </c>
       <c r="J4" t="n">
-        <v>13058.45186476389</v>
+        <v>13058.45186476391</v>
       </c>
       <c r="K4" t="n">
         <v>13058.45186476391</v>
       </c>
       <c r="L4" t="n">
-        <v>13058.4518647639</v>
+        <v>13058.45186476391</v>
       </c>
       <c r="M4" t="n">
+        <v>13058.45186476393</v>
+      </c>
+      <c r="N4" t="n">
         <v>13058.45186476391</v>
       </c>
-      <c r="N4" t="n">
-        <v>13058.45186476389</v>
-      </c>
       <c r="O4" t="n">
-        <v>13058.45186476389</v>
+        <v>13058.45186476391</v>
       </c>
       <c r="P4" t="n">
         <v>13058.45186476391</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-736428.3362434319</v>
+        <v>-736891.1681071968</v>
       </c>
       <c r="C6" t="n">
         <v>-242871.4954979268</v>
       </c>
       <c r="D6" t="n">
-        <v>-242871.4954979268</v>
+        <v>-242871.4954979269</v>
       </c>
       <c r="E6" t="n">
-        <v>-1002729.275764485</v>
+        <v>-1002765.478618181</v>
       </c>
       <c r="F6" t="n">
-        <v>-73685.43005602813</v>
+        <v>-73720.16798146383</v>
       </c>
       <c r="G6" t="n">
-        <v>-65832.79244107722</v>
+        <v>-65867.53036651296</v>
       </c>
       <c r="H6" t="n">
-        <v>-65832.79244107724</v>
+        <v>-65867.53036651293</v>
       </c>
       <c r="I6" t="n">
-        <v>-94598.19721909687</v>
+        <v>-94598.19721909685</v>
       </c>
       <c r="J6" t="n">
-        <v>-251593.6984180581</v>
+        <v>-251593.698418058</v>
       </c>
       <c r="K6" t="n">
-        <v>-75170.47922546514</v>
+        <v>-75170.47922546511</v>
       </c>
       <c r="L6" t="n">
-        <v>-75170.4792254651</v>
+        <v>-75170.47922546511</v>
       </c>
       <c r="M6" t="n">
         <v>-199378.9899335236</v>
       </c>
       <c r="N6" t="n">
-        <v>-94598.19721909682</v>
+        <v>-94598.19721909685</v>
       </c>
       <c r="O6" t="n">
         <v>-75170.4792254651</v>
       </c>
       <c r="P6" t="n">
-        <v>-75170.47922546518</v>
+        <v>-75170.47922546511</v>
       </c>
     </row>
   </sheetData>
@@ -26704,28 +26704,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
         <v>24.28464749203972</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -26926,13 +26926,13 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.907985046680551e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26941,13 +26941,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>7.815970093361102e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27163,13 +27163,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>3.907985046680551e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27382,7 +27382,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>331.752415229699</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27543,22 +27543,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,19 +27579,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>165.8881864335715</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,16 +27622,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,22 +27661,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>3.382131953751184</v>
       </c>
       <c r="W5" t="n">
-        <v>7.983128723806715</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27792,10 +27792,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>26.1253136344736</v>
       </c>
       <c r="T7" t="n">
-        <v>115.2594492617797</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27862,16 +27862,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>3.733913147197427</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>176.4081716811968</v>
       </c>
     </row>
     <row r="9">
@@ -28014,22 +28014,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>39.34848094147682</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,7 +28062,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>198.788743792277</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="26">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="35">
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
   </sheetData>
@@ -31039,13 +31039,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31063,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31151,16 +31151,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31221,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31236,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31835,7 +31835,7 @@
         <v>28.2113810308819</v>
       </c>
       <c r="I12" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>275.9770021735818</v>
@@ -31850,19 +31850,19 @@
         <v>740.1323715504301</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>382.7677754386397</v>
       </c>
       <c r="O12" t="n">
-        <v>694.9967242426204</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>220.0891643226154</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q12" t="n">
         <v>372.8719498286952</v>
       </c>
       <c r="R12" t="n">
-        <v>181.3625385436713</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.2575834086216</v>
@@ -32078,25 +32078,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>146.0225991093089</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>575.5951359912046</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>575.5951359912046</v>
       </c>
       <c r="N18" t="n">
-        <v>265.5442652399242</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>261.5336801130326</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>370.9642309107746</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32792,13 +32792,13 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>477.8500485393211</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>641.2555750770849</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437244</v>
@@ -32810,7 +32810,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -33020,31 +33020,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>614.7544723218309</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>575.5951359912046</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33269,19 +33269,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>652.0478969157701</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>154.5219885631796</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33494,25 +33494,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>652.0478969157701</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>271.1474903386692</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33521,7 +33521,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,28 +33734,28 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>328.903832042181</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33971,10 +33971,10 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33983,19 +33983,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>681.5735157229393</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34208,28 +34208,28 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>270.9486956727256</v>
+        <v>575.5951359912046</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34445,7 +34445,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34454,10 +34454,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>452.3405299254388</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O45" t="n">
         <v>142.5962444444444</v>
@@ -34711,10 +34711,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,13 +35012,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35027,7 +35027,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,7 +35170,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K8" t="n">
         <v>297.2230414343419</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,10 +35258,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856231</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35422,13 +35422,13 @@
         <v>744.7323009263698</v>
       </c>
       <c r="O11" t="n">
-        <v>739.5040280119352</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P11" t="n">
         <v>553.8443926134828</v>
       </c>
       <c r="Q11" t="n">
-        <v>367.2547334404111</v>
+        <v>416.9991286653376</v>
       </c>
       <c r="R11" t="n">
         <v>127.3573607845841</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.049527853053107</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>149.1393755069151</v>
@@ -35498,19 +35498,19 @@
         <v>597.9983376284117</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>251.4260633553063</v>
       </c>
       <c r="O12" t="n">
-        <v>552.400479798176</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>86.11475690828513</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q12" t="n">
         <v>232.8901757426737</v>
       </c>
       <c r="R12" t="n">
-        <v>35.6830345797074</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>8.181160134949948</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>433.4611020691863</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,25 +35966,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>433.4611020691863</v>
       </c>
       <c r="N18" t="n">
-        <v>134.202553156591</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>134.6960534463659</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36440,13 +36440,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>339.2956687594469</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>509.9138629937516</v>
       </c>
       <c r="O24" t="n">
         <v>557.48457599928</v>
@@ -36458,7 +36458,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,31 +36668,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>476.2000925419567</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>433.4611020691863</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K28" t="n">
         <v>288.6172359016746</v>
@@ -36771,7 +36771,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q28" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36917,19 +36917,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>20.54758114884936</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36990,10 +36990,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
         <v>450.5570744930848</v>
@@ -37142,25 +37142,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>128.5512458942248</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37169,7 +37169,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>188.9220579561594</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,10 +37464,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930848</v>
@@ -37558,7 +37558,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924728</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37631,19 +37631,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>550.231803639606</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,13 +37698,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930848</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>128.8146617507074</v>
+        <v>433.4611020691863</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38102,10 +38102,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>310.2064960034205</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
